--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -347,99 +347,99 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>3.431304s</v>
+        <v>3.326547s</v>
       </c>
       <c r="B2" t="str">
-        <v>26.501467ms</v>
+        <v>25.57ms</v>
       </c>
       <c r="C2" t="str">
-        <v>141.322289ms</v>
+        <v>138.302711ms</v>
       </c>
       <c r="D2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>3.228626s</v>
+        <v>3.353029s</v>
       </c>
       <c r="B3" t="str">
-        <v>26.501507ms</v>
+        <v>26.588527ms</v>
       </c>
       <c r="C3" t="str">
-        <v>206.375973ms</v>
+        <v>91.978491ms</v>
       </c>
       <c r="D3">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E3">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F3">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3.163663s</v>
+        <v>3.366797s</v>
       </c>
       <c r="B4" t="str">
-        <v>26.525536ms</v>
+        <v>47.48221ms</v>
       </c>
       <c r="C4" t="str">
-        <v>141.293673ms</v>
+        <v>105.628245ms</v>
       </c>
       <c r="D4">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F4">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>3.200118s</v>
+        <v>3.411543s</v>
       </c>
       <c r="B5" t="str">
-        <v>41.336066ms</v>
+        <v>47.395864ms</v>
       </c>
       <c r="C5" t="str">
-        <v>178.581049ms</v>
+        <v>119.159053ms</v>
       </c>
       <c r="D5">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E5">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>3.331868s</v>
+        <v>3.33198s</v>
       </c>
       <c r="B6" t="str">
-        <v>42.230683ms</v>
+        <v>44.637706ms</v>
       </c>
       <c r="C6" t="str">
-        <v>270.827134ms</v>
+        <v>91.755787ms</v>
       </c>
       <c r="D6">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E6">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F6">
         <v>84</v>
@@ -447,1922 +447,1922 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>3.423808s</v>
+        <v>3.31911s</v>
       </c>
       <c r="B7" t="str">
-        <v>39.913694ms</v>
+        <v>12.017726ms</v>
       </c>
       <c r="C7" t="str">
-        <v>182.916327ms</v>
+        <v>128.309133ms</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>3.995641s</v>
+        <v>3.401251s</v>
       </c>
       <c r="B8" t="str">
-        <v>72.530109ms</v>
+        <v>33.035042ms</v>
       </c>
       <c r="C8" t="str">
-        <v>245.455244ms</v>
+        <v>107.941662ms</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F8">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>1.041826s</v>
+        <v>3.491657s</v>
       </c>
       <c r="B9" t="str">
-        <v>33.661343ms</v>
+        <v>36.84801ms</v>
       </c>
       <c r="C9" t="str">
-        <v>83.622944ms</v>
+        <v>149.838889ms</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="F9">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>4.865641s</v>
+        <v>3.466864s</v>
       </c>
       <c r="B10" t="str">
-        <v>49.087096ms</v>
+        <v>26.971901ms</v>
       </c>
       <c r="C10" t="str">
-        <v>529.485348ms</v>
+        <v>152.606772ms</v>
       </c>
       <c r="D10">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E10">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F10">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>5.865867s</v>
+        <v>3.53649s</v>
       </c>
       <c r="B11" t="str">
-        <v>33.244032ms</v>
+        <v>47.240734ms</v>
       </c>
       <c r="C11" t="str">
-        <v>256.587833ms</v>
+        <v>146.214812ms</v>
       </c>
       <c r="D11">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E11">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F11">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>10.38287s</v>
+        <v>3.78304s</v>
       </c>
       <c r="B12" t="str">
-        <v>27.696052ms</v>
+        <v>32.318978ms</v>
       </c>
       <c r="C12" t="str">
-        <v>984.755561ms</v>
+        <v>263.320457ms</v>
       </c>
       <c r="D12">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="E12">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>11.381117s</v>
+        <v>3.040659s</v>
       </c>
       <c r="B13" t="str">
-        <v>423.854722ms</v>
+        <v>36.49077ms</v>
       </c>
       <c r="C13" t="str">
-        <v>1.70768943s</v>
+        <v>130.979626ms</v>
       </c>
       <c r="D13">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E13">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="F13">
-        <v>111</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>12.564851s</v>
+        <v>4.221607s</v>
       </c>
       <c r="B14" t="str">
-        <v>143.774362ms</v>
+        <v>34.297266ms</v>
       </c>
       <c r="C14" t="str">
-        <v>1.272948752s</v>
+        <v>291.969046ms</v>
       </c>
       <c r="D14">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E14">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F14">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>12.086281s</v>
+        <v>4.470009s</v>
       </c>
       <c r="B15" t="str">
-        <v>199.919708ms</v>
+        <v>88.466141ms</v>
       </c>
       <c r="C15" t="str">
-        <v>1.335308344s</v>
+        <v>186.673642ms</v>
       </c>
       <c r="D15">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E15">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F15">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>13.34223s</v>
+        <v>492.762ms</v>
       </c>
       <c r="B16" t="str">
-        <v>525.129856ms</v>
+        <v>26.308µs</v>
       </c>
       <c r="C16" t="str">
-        <v>2.161771543s</v>
+        <v>69.505543ms</v>
       </c>
       <c r="D16">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>16.4442s</v>
+        <v>9.219365s</v>
       </c>
       <c r="B17" t="str">
-        <v>255.693607ms</v>
+        <v>8.717097ms</v>
       </c>
       <c r="C17" t="str">
-        <v>4.295836272s</v>
+        <v>747.092596ms</v>
       </c>
       <c r="D17">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17">
+        <v>107</v>
+      </c>
+      <c r="F17">
         <v>111</v>
-      </c>
-      <c r="F17">
-        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>18.125331s</v>
+        <v>9.854401s</v>
       </c>
       <c r="B18" t="str">
-        <v>422.092836ms</v>
+        <v>1.515812ms</v>
       </c>
       <c r="C18" t="str">
-        <v>3.923222516s</v>
+        <v>1.041556881s</v>
       </c>
       <c r="D18">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E18">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F18">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>10.016131s</v>
+        <v>9.775562s</v>
       </c>
       <c r="B19" t="str">
-        <v>573.360132ms</v>
+        <v>19.288718ms</v>
       </c>
       <c r="C19" t="str">
-        <v>1.220043721s</v>
+        <v>940.329231ms</v>
       </c>
       <c r="D19">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E19">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F19">
-        <v>58</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2.90709s</v>
+        <v>10.157447s</v>
       </c>
       <c r="B20" t="str">
-        <v>62.498053ms</v>
+        <v>131.287615ms</v>
       </c>
       <c r="C20" t="str">
-        <v>433.242414ms</v>
+        <v>916.80588ms</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>20.333864s</v>
+        <v>10.678129s</v>
       </c>
       <c r="B21" t="str">
-        <v>10.924638ms</v>
+        <v>82.942927ms</v>
       </c>
       <c r="C21" t="str">
-        <v>5.645858808s</v>
+        <v>1.456160997s</v>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E21">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F21">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>24.262338s</v>
+        <v>12.698484s</v>
       </c>
       <c r="B22" t="str">
-        <v>1.166675505s</v>
+        <v>433.781548ms</v>
       </c>
       <c r="C22" t="str">
-        <v>7.511164969s</v>
+        <v>2.543630731s</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E22">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F22">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>21.498959s</v>
+        <v>12.484446s</v>
       </c>
       <c r="B23" t="str">
-        <v>1.463540577s</v>
+        <v>227.70251ms</v>
       </c>
       <c r="C23" t="str">
-        <v>6.241380196s</v>
+        <v>1.762437166s</v>
       </c>
       <c r="D23">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E23">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F23">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>7.185467s</v>
+        <v>14.294739s</v>
       </c>
       <c r="B24" t="str">
-        <v>263.24097ms</v>
+        <v>131.522828ms</v>
       </c>
       <c r="C24" t="str">
-        <v>3.161198913s</v>
+        <v>2.644334537s</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E24">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F24">
-        <v>25</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>8.706604s</v>
+        <v>13.952368s</v>
       </c>
       <c r="B25" t="str">
-        <v>204.905403ms</v>
+        <v>111.357164ms</v>
       </c>
       <c r="C25" t="str">
-        <v>2.327222603s</v>
+        <v>3.013704576s</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F25">
-        <v>39</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>7.934992s</v>
+        <v>754.774ms</v>
       </c>
       <c r="B26" t="str">
-        <v>691.914734ms</v>
+        <v>105.54336ms</v>
       </c>
       <c r="C26" t="str">
-        <v>2.410413508s</v>
+        <v>35.282386ms</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>25.497388s</v>
+        <v>13.815182s</v>
       </c>
       <c r="B27" t="str">
-        <v>1.471931809s</v>
+        <v>115.860742ms</v>
       </c>
       <c r="C27" t="str">
-        <v>6.724968895s</v>
+        <v>1.537720474s</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E27">
+        <v>117</v>
+      </c>
+      <c r="F27">
         <v>108</v>
-      </c>
-      <c r="F27">
-        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>11.051774s</v>
+        <v>14.820352s</v>
       </c>
       <c r="B28" t="str">
-        <v>865.490489ms</v>
+        <v>67.64768ms</v>
       </c>
       <c r="C28" t="str">
-        <v>4.062131885s</v>
+        <v>2.559015891s</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="F28">
-        <v>37</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>30.425996s</v>
+        <v>15.683415s</v>
       </c>
       <c r="B29" t="str">
-        <v>1.688259744s</v>
+        <v>78.216246ms</v>
       </c>
       <c r="C29" t="str">
-        <v>8.034530281s</v>
+        <v>3.494373978s</v>
       </c>
       <c r="D29">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="E29">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F29">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>3.368018s</v>
+        <v>13.861097s</v>
       </c>
       <c r="B30" t="str">
-        <v>939.213314ms</v>
+        <v>283.98185ms</v>
       </c>
       <c r="C30" t="str">
-        <v>449.173908ms</v>
+        <v>2.452276153s</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="E30">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>24.655092s</v>
+        <v>15.839788s</v>
       </c>
       <c r="B31" t="str">
-        <v>2.437041039s</v>
+        <v>25.214566ms</v>
       </c>
       <c r="C31" t="str">
-        <v>7.083589527s</v>
+        <v>2.52980952s</v>
       </c>
       <c r="D31">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E31">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="F31">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>12.055106s</v>
+        <v>16.69326s</v>
       </c>
       <c r="B32" t="str">
-        <v>961.779906ms</v>
+        <v>319.97101ms</v>
       </c>
       <c r="C32" t="str">
-        <v>4.547798095s</v>
+        <v>3.835614596s</v>
       </c>
       <c r="D32">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E32">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F32">
-        <v>40</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>21.662229s</v>
+        <v>15.247395s</v>
       </c>
       <c r="B33" t="str">
-        <v>2.227713929s</v>
+        <v>295.328003ms</v>
       </c>
       <c r="C33" t="str">
-        <v>7.287033152s</v>
+        <v>2.309449759s</v>
       </c>
       <c r="D33">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E33">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F33">
-        <v>57</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>12.920803s</v>
+        <v>17.356059s</v>
       </c>
       <c r="B34" t="str">
-        <v>383.841986ms</v>
+        <v>315.877879ms</v>
       </c>
       <c r="C34" t="str">
-        <v>6.619087004s</v>
+        <v>3.34945181s</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E34">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="F34">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>12.893559s</v>
+        <v>17.315985s</v>
       </c>
       <c r="B35" t="str">
-        <v>1.479222759s</v>
+        <v>518.255297ms</v>
       </c>
       <c r="C35" t="str">
-        <v>6.440962319s</v>
+        <v>3.121381005s</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E35">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F35">
-        <v>39</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>34.051097s</v>
+        <v>20.967695s</v>
       </c>
       <c r="B36" t="str">
-        <v>4.020799672s</v>
+        <v>190.59139ms</v>
       </c>
       <c r="C36" t="str">
-        <v>11.207131014s</v>
+        <v>4.779571958s</v>
       </c>
       <c r="D36">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E36">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>18.159182s</v>
+        <v>9.574942s</v>
       </c>
       <c r="B37" t="str">
-        <v>1.730916821s</v>
+        <v>258.869414ms</v>
       </c>
       <c r="C37" t="str">
-        <v>7.319008791s</v>
+        <v>3.296733995s</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E37">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F37">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>10.363139s</v>
+        <v>21.570445s</v>
       </c>
       <c r="B38" t="str">
-        <v>1.022847295s</v>
+        <v>458.699587ms</v>
       </c>
       <c r="C38" t="str">
-        <v>4.784480186s</v>
+        <v>5.115250342s</v>
       </c>
       <c r="D38">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>4.426208s</v>
+        <v>5.872882s</v>
       </c>
       <c r="B39" t="str">
-        <v>0s</v>
+        <v>334.549934ms</v>
       </c>
       <c r="C39" t="str">
-        <v>2.304732769s</v>
+        <v>1.305975934s</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>10.251083s</v>
+        <v>3.152223s</v>
       </c>
       <c r="B40" t="str">
-        <v>1.359158189s</v>
+        <v>37.908195ms</v>
       </c>
       <c r="C40" t="str">
-        <v>4.489874899s</v>
+        <v>551.744426ms</v>
       </c>
       <c r="D40">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F40">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>10.834951s</v>
+        <v>2.835513s</v>
       </c>
       <c r="B41" t="str">
-        <v>2.118248573s</v>
+        <v>0s</v>
       </c>
       <c r="C41" t="str">
-        <v>3.263004156s</v>
+        <v>557.538664ms</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E41">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>476.352ms</v>
+        <v>19.40697s</v>
       </c>
       <c r="B42" t="str">
-        <v>0s</v>
+        <v>781.531685ms</v>
       </c>
       <c r="C42" t="str">
-        <v>0s</v>
+        <v>3.618770448s</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>14.334465s</v>
+        <v>10.594993s</v>
       </c>
       <c r="B43" t="str">
-        <v>1.365322717s</v>
+        <v>430.426644ms</v>
       </c>
       <c r="C43" t="str">
-        <v>6.342158534s</v>
+        <v>2.211309832s</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E43">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>3.813913s</v>
+        <v>19.708873s</v>
       </c>
       <c r="B44" t="str">
-        <v>1.025063052s</v>
+        <v>871.403682ms</v>
       </c>
       <c r="C44" t="str">
-        <v>561.512651ms</v>
+        <v>4.809197361s</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>13.705505s</v>
+        <v>7.393628s</v>
       </c>
       <c r="B45" t="str">
-        <v>428.408672ms</v>
+        <v>129.93139ms</v>
       </c>
       <c r="C45" t="str">
-        <v>4.48947877s</v>
+        <v>2.187681116s</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F45">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>3.685496s</v>
+        <v>19.112288s</v>
       </c>
       <c r="B46" t="str">
-        <v>438.569827ms</v>
+        <v>537.679073ms</v>
       </c>
       <c r="C46" t="str">
-        <v>922.097277ms</v>
+        <v>4.765402195s</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>4.466067s</v>
+        <v>15.289795s</v>
       </c>
       <c r="B47" t="str">
-        <v>10.619396ms</v>
+        <v>1.1046719s</v>
       </c>
       <c r="C47" t="str">
-        <v>2.356924602s</v>
+        <v>5.874518831s</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>4.454859s</v>
+        <v>8.856378s</v>
       </c>
       <c r="B48" t="str">
-        <v>227.887329ms</v>
+        <v>206.062953ms</v>
       </c>
       <c r="C48" t="str">
-        <v>1.541273839s</v>
+        <v>3.4430987s</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>13.275141s</v>
+        <v>23.173513s</v>
       </c>
       <c r="B49" t="str">
-        <v>1.849528976s</v>
+        <v>547.163317ms</v>
       </c>
       <c r="C49" t="str">
-        <v>5.049399308s</v>
+        <v>7.247149684s</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E49">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F49">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>10.089391s</v>
+        <v>265.469ms</v>
       </c>
       <c r="B50" t="str">
-        <v>1.028050391s</v>
+        <v>0s</v>
       </c>
       <c r="C50" t="str">
-        <v>3.585928954s</v>
+        <v>0s</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2.618818s</v>
+        <v>20.334319s</v>
       </c>
       <c r="B51" t="str">
-        <v>0s</v>
+        <v>50.996584ms</v>
       </c>
       <c r="C51" t="str">
-        <v>1.019781762s</v>
+        <v>6.959809244s</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2.048838s</v>
+        <v>22.259566s</v>
       </c>
       <c r="B52" t="str">
-        <v>0s</v>
+        <v>941.672677ms</v>
       </c>
       <c r="C52" t="str">
-        <v>0s</v>
+        <v>4.346136934s</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>9.957419s</v>
+        <v>23.497256s</v>
       </c>
       <c r="B53" t="str">
-        <v>1.203196012s</v>
+        <v>1.003471152s</v>
       </c>
       <c r="C53" t="str">
-        <v>5.60130099s</v>
+        <v>5.313767511s</v>
       </c>
       <c r="D53">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="E53">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2.709647s</v>
+        <v>25.114687s</v>
       </c>
       <c r="B54" t="str">
-        <v>0s</v>
+        <v>801.018098ms</v>
       </c>
       <c r="C54" t="str">
-        <v>0s</v>
+        <v>7.980086978s</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>1.975023s</v>
+        <v>13.419859s</v>
       </c>
       <c r="B55" t="str">
-        <v>497.308722ms</v>
+        <v>612.911752ms</v>
       </c>
       <c r="C55" t="str">
-        <v>0s</v>
+        <v>3.970601537s</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>9.612386s</v>
+        <v>736.19ms</v>
       </c>
       <c r="B56" t="str">
-        <v>1.040612916s</v>
+        <v>0s</v>
       </c>
       <c r="C56" t="str">
-        <v>5.668023497s</v>
+        <v>0s</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>6.01764s</v>
+        <v>23.11181s</v>
       </c>
       <c r="B57" t="str">
-        <v>1.197843004s</v>
+        <v>496.976899ms</v>
       </c>
       <c r="C57" t="str">
-        <v>3.108232602s</v>
+        <v>5.626914201s</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>6.896636s</v>
+        <v>14.384677s</v>
       </c>
       <c r="B58" t="str">
-        <v>520.138907ms</v>
+        <v>1.154183328s</v>
       </c>
       <c r="C58" t="str">
-        <v>2.982681133s</v>
+        <v>3.393402103s</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>6.639264s</v>
+        <v>28.287871s</v>
       </c>
       <c r="B59" t="str">
-        <v>783.746645ms</v>
+        <v>1.32836765s</v>
       </c>
       <c r="C59" t="str">
-        <v>3.040977935s</v>
+        <v>9.314214085s</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E59">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>3.240481s</v>
+        <v>25.358459s</v>
       </c>
       <c r="B60" t="str">
-        <v>140.354119ms</v>
+        <v>955.240425ms</v>
       </c>
       <c r="C60" t="str">
-        <v>894.954313ms</v>
+        <v>7.715019851s</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="F60">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>4.294346s</v>
+        <v>27.324639s</v>
       </c>
       <c r="B61" t="str">
-        <v>1.660829295s</v>
+        <v>1.011504436s</v>
       </c>
       <c r="C61" t="str">
-        <v>1.518775068s</v>
+        <v>8.279524124s</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="E61">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>3.543733s</v>
+        <v>28.194293s</v>
       </c>
       <c r="B62" t="str">
-        <v>30.075µs</v>
+        <v>1.162996096s</v>
       </c>
       <c r="C62" t="str">
-        <v>0s</v>
+        <v>9.373030356s</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>17.318288s</v>
+        <v>6.875661s</v>
       </c>
       <c r="B63" t="str">
-        <v>4.475827355s</v>
+        <v>244.728128ms</v>
       </c>
       <c r="C63" t="str">
-        <v>5.728220602s</v>
+        <v>3.096072766s</v>
       </c>
       <c r="D63">
         <v>19</v>
       </c>
       <c r="E63">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F63">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>5.298602s</v>
+        <v>1.147464s</v>
       </c>
       <c r="B64" t="str">
-        <v>117.850495ms</v>
+        <v>0s</v>
       </c>
       <c r="C64" t="str">
-        <v>3.300175253s</v>
+        <v>309.990747ms</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>4.081888s</v>
+        <v>2.93044s</v>
       </c>
       <c r="B65" t="str">
         <v>0s</v>
       </c>
       <c r="C65" t="str">
-        <v>984.711428ms</v>
+        <v>989.559239ms</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2.843617s</v>
+        <v>1.702226s</v>
       </c>
       <c r="B66" t="str">
-        <v>236.819533ms</v>
+        <v>0s</v>
       </c>
       <c r="C66" t="str">
-        <v>455.140153ms</v>
+        <v>312.59567ms</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>8.268903s</v>
+        <v>6.966426s</v>
       </c>
       <c r="B67" t="str">
-        <v>426.414527ms</v>
+        <v>184.641376ms</v>
       </c>
       <c r="C67" t="str">
-        <v>3.909061955s</v>
+        <v>2.318870886s</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>3.120993s</v>
+        <v>12.85868s</v>
       </c>
       <c r="B68" t="str">
-        <v>0s</v>
+        <v>72.351µs</v>
       </c>
       <c r="C68" t="str">
-        <v>1.622310115s</v>
+        <v>3.806452039s</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>5.201436s</v>
+        <v>17.636384s</v>
       </c>
       <c r="B69" t="str">
-        <v>1.016929426s</v>
+        <v>896.791714ms</v>
       </c>
       <c r="C69" t="str">
-        <v>1.811715655s</v>
+        <v>3.656816131s</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>6.058687s</v>
+        <v>14.659605s</v>
       </c>
       <c r="B70" t="str">
-        <v>1.370838986s</v>
+        <v>475.519628ms</v>
       </c>
       <c r="C70" t="str">
-        <v>3.349803377s</v>
+        <v>3.548307259s</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>8.3626s</v>
+        <v>15.81434s</v>
       </c>
       <c r="B71" t="str">
-        <v>0s</v>
+        <v>610.116757ms</v>
       </c>
       <c r="C71" t="str">
-        <v>6.248775777s</v>
+        <v>3.805991941s</v>
       </c>
       <c r="D71">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="F71">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>27.240667s</v>
+        <v>25.815931s</v>
       </c>
       <c r="B72" t="str">
-        <v>2.603900581s</v>
+        <v>1.821221282s</v>
       </c>
       <c r="C72" t="str">
-        <v>13.373486018s</v>
+        <v>7.428719806s</v>
       </c>
       <c r="D72">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="E72">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="F72">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>1.941229s</v>
+        <v>17.955715s</v>
       </c>
       <c r="B73" t="str">
-        <v>0s</v>
+        <v>870.044216ms</v>
       </c>
       <c r="C73" t="str">
-        <v>0s</v>
+        <v>7.936525027s</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>1.816692s</v>
+        <v>9.931952s</v>
       </c>
       <c r="B74" t="str">
-        <v>624.827925ms</v>
+        <v>0s</v>
       </c>
       <c r="C74" t="str">
-        <v>622.789433ms</v>
+        <v>3.864139793s</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2.467984s</v>
+        <v>30.487096s</v>
       </c>
       <c r="B75" t="str">
-        <v>0s</v>
+        <v>2.590875691s</v>
       </c>
       <c r="C75" t="str">
-        <v>0s</v>
+        <v>9.25758849s</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>9.16284s</v>
+        <v>2.14392s</v>
       </c>
       <c r="B76" t="str">
-        <v>2.032056476s</v>
+        <v>291.294721ms</v>
       </c>
       <c r="C76" t="str">
-        <v>3.726289824s</v>
+        <v>333.58742ms</v>
       </c>
       <c r="D76">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>8</v>
       </c>
       <c r="F76">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>8.875838s</v>
+        <v>21.888217s</v>
       </c>
       <c r="B77" t="str">
-        <v>389.851193ms</v>
+        <v>1.520296537s</v>
       </c>
       <c r="C77" t="str">
-        <v>5.420547319s</v>
+        <v>4.278385005s</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="E77">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>1.030559s</v>
+        <v>26.180682s</v>
       </c>
       <c r="B78" t="str">
-        <v>0s</v>
+        <v>1.580700389s</v>
       </c>
       <c r="C78" t="str">
-        <v>0s</v>
+        <v>9.153431993s</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>11.225089s</v>
+        <v>26.759814s</v>
       </c>
       <c r="B79" t="str">
-        <v>593.100874ms</v>
+        <v>1.844818321s</v>
       </c>
       <c r="C79" t="str">
-        <v>3.886321316s</v>
+        <v>5.834132529s</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E79">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="F79">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>3.396366s</v>
+        <v>1.312317s</v>
       </c>
       <c r="B80" t="str">
-        <v>0s</v>
+        <v>153.090313ms</v>
       </c>
       <c r="C80" t="str">
-        <v>1.076305609s</v>
+        <v>457.802224ms</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>9.217944s</v>
+        <v>4.33819s</v>
       </c>
       <c r="B81" t="str">
-        <v>386.199456ms</v>
+        <v>0s</v>
       </c>
       <c r="C81" t="str">
-        <v>2.511573161s</v>
+        <v>819.839426ms</v>
       </c>
       <c r="D81">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F81">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>1.144252s</v>
+        <v>24.241628s</v>
       </c>
       <c r="B82" t="str">
-        <v>0s</v>
+        <v>1.033551924s</v>
       </c>
       <c r="C82" t="str">
-        <v>0s</v>
+        <v>8.27784288s</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>1.095383s</v>
+        <v>20.431162s</v>
       </c>
       <c r="B83" t="str">
-        <v>0s</v>
+        <v>296.539508ms</v>
       </c>
       <c r="C83" t="str">
-        <v>0s</v>
+        <v>9.416633218s</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>8.778775s</v>
+        <v>16.956553s</v>
       </c>
       <c r="B84" t="str">
-        <v>0s</v>
+        <v>558.186328ms</v>
       </c>
       <c r="C84" t="str">
-        <v>1.314967343s</v>
+        <v>6.304955241s</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>4.578151s</v>
+        <v>31.761038s</v>
       </c>
       <c r="B85" t="str">
-        <v>475.620156ms</v>
+        <v>526.921415ms</v>
       </c>
       <c r="C85" t="str">
-        <v>478.734597ms</v>
+        <v>6.96572273s</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="F85">
-        <v>5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>656.637ms</v>
+        <v>30.730203s</v>
       </c>
       <c r="B86" t="str">
-        <v>0s</v>
+        <v>1.464645786s</v>
       </c>
       <c r="C86" t="str">
-        <v>0s</v>
+        <v>9.097846767s</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2.393374s</v>
+        <v>22.481314s</v>
       </c>
       <c r="B87" t="str">
-        <v>0s</v>
+        <v>1.061719115s</v>
       </c>
       <c r="C87" t="str">
-        <v>727.063589ms</v>
+        <v>7.353454034s</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>10.034212s</v>
+        <v>8.196384s</v>
       </c>
       <c r="B88" t="str">
-        <v>466.882122ms</v>
+        <v>0s</v>
       </c>
       <c r="C88" t="str">
-        <v>3.165425466s</v>
+        <v>3.335576608s</v>
       </c>
       <c r="D88">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E88">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F88">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2.116021s</v>
+        <v>27.486644s</v>
       </c>
       <c r="B89" t="str">
-        <v>0s</v>
+        <v>3.317524102s</v>
       </c>
       <c r="C89" t="str">
-        <v>0s</v>
+        <v>10.61218463s</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>6.315769s</v>
+        <v>7.52115s</v>
       </c>
       <c r="B90" t="str">
-        <v>0s</v>
+        <v>503.216214ms</v>
       </c>
       <c r="C90" t="str">
-        <v>3.449263904s</v>
+        <v>2.581445797s</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F90">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>1.842907s</v>
+        <v>5.865196s</v>
       </c>
       <c r="B91" t="str">
-        <v>0s</v>
+        <v>178.383292ms</v>
       </c>
       <c r="C91" t="str">
-        <v>0s</v>
+        <v>2.4718481s</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2.646207s</v>
+        <v>31.687921s</v>
       </c>
       <c r="B92" t="str">
-        <v>623.590858ms</v>
+        <v>1.27392972s</v>
       </c>
       <c r="C92" t="str">
-        <v>1.758859754s</v>
+        <v>12.339902944s</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>4.219832s</v>
+        <v>7.414612s</v>
       </c>
       <c r="B93" t="str">
-        <v>612.282429ms</v>
+        <v>1.88293213s</v>
       </c>
       <c r="C93" t="str">
-        <v>1.801510924s</v>
+        <v>2.554444592s</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E93">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2.507704s</v>
+        <v>6.511346s</v>
       </c>
       <c r="B94" t="str">
-        <v>0s</v>
+        <v>787ns</v>
       </c>
       <c r="C94" t="str">
-        <v>0s</v>
+        <v>2.125177999s</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>3.771687s</v>
+        <v>15.108736s</v>
       </c>
       <c r="B95" t="str">
-        <v>0s</v>
+        <v>1.298619025s</v>
       </c>
       <c r="C95" t="str">
-        <v>439.866538ms</v>
+        <v>3.383876114s</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>11.159487s</v>
+        <v>3.158538s</v>
       </c>
       <c r="B96" t="str">
-        <v>0s</v>
+        <v>301.083775ms</v>
       </c>
       <c r="C96" t="str">
-        <v>7.130070388s</v>
+        <v>1.205760025s</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>344.919ms</v>
+        <v>15.310963s</v>
       </c>
       <c r="B97" t="str">
-        <v>0s</v>
+        <v>847.723926ms</v>
       </c>
       <c r="C97" t="str">
-        <v>0s</v>
+        <v>5.321731083s</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>8.338584s</v>
+        <v>6.519907s</v>
       </c>
       <c r="B98" t="str">
-        <v>3.041900668s</v>
+        <v>268.056701ms</v>
       </c>
       <c r="C98" t="str">
-        <v>3.269285601s</v>
+        <v>2.168239813s</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>4.849086s</v>
+        <v>5.152599s</v>
       </c>
       <c r="B99" t="str">
-        <v>2.143588838s</v>
+        <v>784.390094ms</v>
       </c>
       <c r="C99" t="str">
-        <v>2.564201347s</v>
+        <v>1.272459974s</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F99">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>4.549131s</v>
+        <v>31.777989s</v>
       </c>
       <c r="B100" t="str">
-        <v>2.454922978s</v>
+        <v>2.958834813s</v>
       </c>
       <c r="C100" t="str">
-        <v>0s</v>
+        <v>9.591111975s</v>
       </c>
       <c r="D100">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>3.095303s</v>
+        <v>1.932611s</v>
       </c>
       <c r="B101" t="str">
-        <v>0s</v>
+        <v>518.002843ms</v>
       </c>
       <c r="C101" t="str">
-        <v>2.063357864s</v>
+        <v>1.363557615s</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>12.488805s</v>
+        <v>10.546268s</v>
       </c>
       <c r="B102" t="str">
-        <v>1.658264234s</v>
+        <v>646.472984ms</v>
       </c>
       <c r="C102" t="str">
-        <v>8.067269854s</v>
+        <v>4.002050489s</v>
       </c>
       <c r="D102">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="F102">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
